--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>82.57832999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>151.76623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.66653</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.38313</v>
-      </c>
-      <c r="F2" t="n">
-        <v>34.50632</v>
-      </c>
-      <c r="G2" t="n">
-        <v>249.72115</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16.01796</v>
-      </c>
-      <c r="I2" t="n">
-        <v>261.42786</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15.88749</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51.66693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>16.81104</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19.08585</v>
-      </c>
-      <c r="N2" t="n">
-        <v>118.84902</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.53586</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.54782</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>78.76605000000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>20.65341</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.06743</v>
-      </c>
-      <c r="T2" t="n">
-        <v>30.58784</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16.4763</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11.26183</v>
-      </c>
-      <c r="W2" t="n">
-        <v>89.91168</v>
-      </c>
-      <c r="X2" t="n">
-        <v>26.39674</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>271.51438</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>288.47074</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>30.4513</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51.21784</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8136</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>85.60711000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11.91465</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2985.79203</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>53.18486</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>85.28058</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>165.24952</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22.87742</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>128.55535</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>114.84669</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>206.87684</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>78.70435999999999</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.90309</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>89.62949999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>174.46403</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.2565</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.67253</v>
-      </c>
-      <c r="F3" t="n">
-        <v>37.30511</v>
-      </c>
-      <c r="G3" t="n">
-        <v>296.43339</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.41768</v>
-      </c>
-      <c r="I3" t="n">
-        <v>307.09898</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19.00104</v>
-      </c>
-      <c r="K3" t="n">
-        <v>61.31902</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.61113</v>
-      </c>
-      <c r="M3" t="n">
-        <v>19.16201</v>
-      </c>
-      <c r="N3" t="n">
-        <v>135.83684</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.53303</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13.62801</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>85.81322</v>
-      </c>
-      <c r="R3" t="n">
-        <v>23.25109</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.30065</v>
-      </c>
-      <c r="T3" t="n">
-        <v>36.15571</v>
-      </c>
-      <c r="U3" t="n">
-        <v>64.68164</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10.71441</v>
-      </c>
-      <c r="W3" t="n">
-        <v>131.3216</v>
-      </c>
-      <c r="X3" t="n">
-        <v>35.36659</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>334.56024</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>318.96331</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>35.79099</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>57.93741</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>27.66156</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>95.55072</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.48563</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3502.77497</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>62.78639</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>99.59860999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>172.04434</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26.41566</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>150.16938</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>125.87465</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>217.97816</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>93.60756000000001</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.363630000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>111.02043</v>
-      </c>
-      <c r="C4" t="n">
-        <v>240.82854</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.0559</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39.63799</v>
-      </c>
-      <c r="G4" t="n">
-        <v>349.44208</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17.65024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>355.90753</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20.504</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68.73707</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21.76203</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24.07154</v>
-      </c>
-      <c r="N4" t="n">
-        <v>162.29094</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45.86</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.95262</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>95.98578999999999</v>
-      </c>
-      <c r="R4" t="n">
-        <v>29.57189</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.51249</v>
-      </c>
-      <c r="T4" t="n">
-        <v>41.83607</v>
-      </c>
-      <c r="U4" t="n">
-        <v>67.45987</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12.24006</v>
-      </c>
-      <c r="W4" t="n">
-        <v>147.8208</v>
-      </c>
-      <c r="X4" t="n">
-        <v>39.35599</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>414.46028</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>333.08719</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>39.60641</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>70.08763999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>20.4779</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>107.18094</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.05362</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>4055.26311</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>71.08696</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>110.00785</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>190.92141</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>31.37726</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>189.14819</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>142.66024</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>242.05984</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>108.33699</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10.14221</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
